--- a/reporte_encuestas.xlsx
+++ b/reporte_encuestas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,50 +505,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No lo se</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Alguna vez</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1474,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1485,23 +1477,23 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1511,7 +1503,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1675,10 +1667,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1686,26 +1678,26 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1726,33 +1718,33 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1761,49 +1753,49 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1828,10 +1820,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1839,47 +1831,47 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
         <v>19</v>
@@ -1890,31 +1882,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -1924,13 +1916,13 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
         <v>19</v>
@@ -1941,26 +1933,26 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1970,44 +1962,44 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2016,46 +2008,46 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2067,12 +2059,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2083,61 +2075,61 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2145,36 +2137,36 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2185,30 +2177,30 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2220,7 +2212,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2230,16 +2222,16 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2247,19 +2239,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2287,14 +2279,14 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -2304,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2322,7 +2314,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2332,67 +2324,67 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2400,26 +2392,26 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2429,7 +2421,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2440,10 +2432,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2451,16 +2443,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
         <v>2</v>
       </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
@@ -2491,34 +2483,34 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
         <v>4</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>No</t>
@@ -2526,49 +2518,49 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2577,12 +2569,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -2593,10 +2585,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2604,19 +2596,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2644,10 +2636,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2655,13 +2647,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2684,45 +2676,45 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>No</t>
@@ -2730,26 +2722,26 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2757,13 +2749,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2772,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2781,7 +2773,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2791,30 +2783,30 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2832,26 +2824,26 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2865,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2883,7 +2875,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -2899,33 +2891,33 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="n">
         <v>41</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2939,21 +2931,21 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2961,13 +2953,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2976,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2985,7 +2977,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -2995,16 +2987,16 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3012,19 +3004,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3036,7 +3028,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3052,10 +3044,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3063,19 +3055,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3103,10 +3095,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3117,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -3126,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3138,7 +3130,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3154,10 +3146,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3165,13 +3157,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -3189,7 +3181,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3205,10 +3197,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3216,22 +3208,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3240,7 +3232,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3256,33 +3248,33 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3291,7 +3283,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3301,16 +3293,16 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3318,19 +3310,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3358,42 +3350,42 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3403,53 +3395,53 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3460,37 +3452,37 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3500,7 +3492,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -3511,10 +3503,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3522,26 +3514,26 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3556,16 +3548,16 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3597,7 +3589,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3607,16 +3599,16 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3624,13 +3616,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3648,7 +3640,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3658,16 +3650,16 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3675,13 +3667,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3715,30 +3707,30 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3750,12 +3742,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -3766,10 +3758,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3780,16 +3772,16 @@
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3801,12 +3793,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -3817,21 +3809,21 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
@@ -3840,11 +3832,11 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>No</t>
@@ -3857,7 +3849,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -3868,10 +3860,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3879,7 +3871,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3891,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -3903,12 +3895,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -3919,10 +3911,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3936,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3945,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3954,7 +3946,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -3970,10 +3962,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3981,13 +3973,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -4021,10 +4013,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4032,13 +4024,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4066,16 +4058,16 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -4123,14 +4115,14 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4168,16 +4160,16 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4185,22 +4177,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -4214,7 +4206,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4225,33 +4217,33 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" t="n">
         <v>47</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4265,7 +4257,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -4276,33 +4268,33 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4316,7 +4308,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -4327,10 +4319,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4341,19 +4333,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4367,25 +4359,25 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -4418,18 +4410,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" t="n">
         <v>16</v>
@@ -4440,22 +4432,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4469,18 +4461,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" t="n">
         <v>16</v>
@@ -4491,22 +4483,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4531,10 +4523,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4557,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4571,7 +4563,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -4582,10 +4574,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4622,21 +4614,21 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4673,25 +4665,25 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -4735,14 +4727,14 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4775,7 +4767,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -4786,21 +4778,21 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="n">
         <v>16</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4809,14 +4801,14 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4826,7 +4818,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -4837,10 +4829,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4848,10 +4840,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -4860,14 +4852,14 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4882,20 +4874,20 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -4914,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4928,25 +4920,25 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -4959,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4979,21 +4971,21 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5010,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5030,7 +5022,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -5041,10 +5033,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -5092,14 +5084,14 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" t="n">
         <v>17</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -5132,7 +5124,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -5143,30 +5135,30 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -5178,7 +5170,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5194,10 +5186,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -5205,13 +5197,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -5229,12 +5221,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -5245,10 +5237,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -5268,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -5285,21 +5277,21 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -5341,16 +5333,16 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5373,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -5387,25 +5379,25 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -5424,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -5449,14 +5441,14 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" t="n">
         <v>17</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -5489,18 +5481,18 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" t="n">
         <v>17</v>
@@ -5540,21 +5532,21 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5596,16 +5588,16 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5628,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5642,25 +5634,25 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -5679,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5693,21 +5685,21 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5730,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5749,16 +5741,16 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5781,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5790,7 +5782,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -5800,16 +5792,16 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5851,20 +5843,20 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" t="n">
         <v>15</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -5892,26 +5884,26 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5943,26 +5935,26 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5985,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5994,26 +5986,26 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -6036,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -6050,18 +6042,18 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" t="n">
         <v>18</v>
@@ -6072,10 +6064,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -6087,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -6106,13 +6098,13 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" t="n">
         <v>18</v>
@@ -6123,13 +6115,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6163,7 +6155,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" t="n">
         <v>18</v>
@@ -6180,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6189,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -6203,18 +6195,18 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" t="n">
         <v>18</v>
@@ -6240,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -6259,33 +6251,33 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -6310,39 +6302,39 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -6361,13 +6353,13 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" t="n">
         <v>18</v>
@@ -6378,22 +6370,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -6402,26 +6394,26 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6429,13 +6421,13 @@
         </is>
       </c>
       <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
         <v>3</v>
       </c>
-      <c r="E118" t="n">
-        <v>4</v>
-      </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6444,16 +6436,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -6469,10 +6461,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6483,28 +6475,28 @@
         <v>2</v>
       </c>
       <c r="E119" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>3</v>
       </c>
-      <c r="F119" t="n">
-        <v>3</v>
-      </c>
-      <c r="G119" t="n">
-        <v>3</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
       <c r="J119" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
           <t>Sí</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -6520,33 +6512,33 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
         <v>2</v>
       </c>
-      <c r="E120" t="n">
-        <v>4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -6555,7 +6547,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -6571,30 +6563,30 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -6611,18 +6603,18 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" t="n">
         <v>18</v>
@@ -6633,22 +6625,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -6667,16 +6659,16 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6713,7 +6705,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -6724,10 +6716,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6735,19 +6727,19 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -6764,18 +6756,18 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" t="n">
         <v>18</v>
@@ -6786,22 +6778,22 @@
         </is>
       </c>
       <c r="D125" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" t="n">
         <v>3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6</v>
       </c>
       <c r="F125" t="n">
         <v>6</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -6815,7 +6807,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -6826,10 +6818,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6837,22 +6829,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E126" t="n">
+        <v>5</v>
+      </c>
+      <c r="F126" t="n">
         <v>3</v>
       </c>
-      <c r="F126" t="n">
-        <v>6</v>
-      </c>
       <c r="G126" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6861,12 +6853,12 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -6877,24 +6869,24 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -6912,40 +6904,40 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -6968,7 +6960,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -6979,61 +6971,61 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -7041,31 +7033,31 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -7081,14 +7073,14 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -7121,7 +7113,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -7132,14 +7124,14 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" t="n">
         <v>18</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -7183,27 +7175,27 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -7228,16 +7220,16 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -7245,16 +7237,16 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -7274,41 +7266,41 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -7320,12 +7312,12 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -7336,30 +7328,30 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D136" t="n">
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -7371,7 +7363,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -7381,13 +7373,13 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" t="n">
         <v>18</v>
@@ -7398,13 +7390,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7413,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -7427,21 +7419,21 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -7449,22 +7441,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -7483,16 +7475,16 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -7500,22 +7492,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F139" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -7534,16 +7526,16 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7551,101 +7543,101 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E140" t="n">
+        <v>12</v>
+      </c>
+      <c r="F140" t="n">
+        <v>18</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5</v>
+      </c>
+      <c r="H140" t="n">
         <v>4</v>
       </c>
-      <c r="F140" t="n">
-        <v>6</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7653,50 +7645,50 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7704,26 +7696,26 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E143" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H143" t="n">
         <v>3</v>
       </c>
       <c r="I143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -7744,61 +7736,61 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F144" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I144" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7806,82 +7798,82 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" t="n">
         <v>21</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -7891,20 +7883,20 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -7923,11 +7915,11 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -7942,16 +7934,16 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7983,12 +7975,12 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -7999,10 +7991,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -8034,12 +8026,12 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -8050,10 +8042,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -8090,21 +8082,21 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -8141,21 +8133,21 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -8163,19 +8155,19 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -8187,12 +8179,12 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -8203,10 +8195,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -8214,23 +8206,23 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F153" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G153" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>2</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
       <c r="J153" t="inlineStr">
         <is>
           <t>No</t>
@@ -8238,26 +8230,26 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -8265,22 +8257,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -8294,21 +8286,21 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -8316,22 +8308,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -8356,10 +8348,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -8367,22 +8359,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -8401,16 +8393,16 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -8421,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -8433,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -8452,16 +8444,16 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -8484,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -8509,10 +8501,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -8520,13 +8512,13 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -8560,24 +8552,24 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -8595,7 +8587,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -8611,42 +8603,42 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -8662,10 +8654,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8676,23 +8668,23 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -8702,21 +8694,21 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -8724,16 +8716,16 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F163" t="n">
         <v>3</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -8753,21 +8745,21 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -8775,13 +8767,13 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -8815,10 +8807,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -8855,7 +8847,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -8866,10 +8858,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -8906,21 +8898,21 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -8962,16 +8954,16 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -8994,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -9003,7 +8995,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -9019,10 +9011,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -9030,36 +9022,36 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -9070,10 +9062,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -9081,26 +9073,26 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -9110,21 +9102,21 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -9132,22 +9124,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -9161,21 +9153,21 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -9183,26 +9175,26 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -9223,10 +9215,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -9234,26 +9226,26 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -9263,7 +9255,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -9274,14 +9266,14 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -9309,7 +9301,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -9319,24 +9311,24 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -9345,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -9360,7 +9352,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -9370,16 +9362,16 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -9387,22 +9379,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -9427,10 +9419,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -9438,22 +9430,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -9467,21 +9459,21 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -9489,13 +9481,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -9518,7 +9510,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -9529,24 +9521,24 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -9574,30 +9566,30 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180" t="n">
         <v>18</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -9615,7 +9607,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -9625,13 +9617,13 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181" t="n">
         <v>18</v>
@@ -9642,22 +9634,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -9666,7 +9658,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -9676,40 +9668,40 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
         <v>4</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>2</v>
       </c>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>5</v>
-      </c>
       <c r="J182" t="inlineStr">
         <is>
           <t>No</t>
@@ -9717,7 +9709,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -9727,30 +9719,30 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -9759,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -9768,7 +9760,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -9778,16 +9770,16 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -9795,13 +9787,13 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -9835,10 +9827,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -9846,10 +9838,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -9886,10 +9878,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -9897,19 +9889,19 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -9921,7 +9913,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -9931,16 +9923,16 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -9948,19 +9940,19 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -9972,12 +9964,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -9988,14 +9980,14 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -10033,20 +10025,20 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -10065,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -10079,18 +10071,18 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B190" t="n">
         <v>17</v>
@@ -10116,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -10135,16 +10127,16 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -10152,16 +10144,16 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -10186,16 +10178,16 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -10203,16 +10195,16 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -10227,26 +10219,26 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -10254,13 +10246,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -10278,26 +10270,26 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -10305,13 +10297,13 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -10345,7 +10337,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B195" t="n">
         <v>20</v>
@@ -10356,26 +10348,26 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -10385,21 +10377,21 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -10407,26 +10399,26 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -10441,16 +10433,16 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -10458,26 +10450,26 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -10498,10 +10490,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -10509,26 +10501,26 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -10549,10 +10541,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -10560,26 +10552,26 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -10589,18 +10581,18 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B200" t="n">
         <v>22</v>
@@ -10611,26 +10603,26 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -10645,16 +10637,16 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -10662,22 +10654,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -10702,7 +10694,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B202" t="n">
         <v>20</v>
@@ -10713,22 +10705,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I202" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -10737,12 +10729,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -10753,10 +10745,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B203" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -10767,19 +10759,19 @@
         <v>10</v>
       </c>
       <c r="E203" t="n">
+        <v>8</v>
+      </c>
+      <c r="F203" t="n">
         <v>2</v>
       </c>
-      <c r="F203" t="n">
-        <v>8</v>
-      </c>
       <c r="G203" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -10788,7 +10780,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -10798,16 +10790,16 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -10815,26 +10807,26 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -10844,7 +10836,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -10855,10 +10847,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -10885,7 +10877,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -10906,10 +10898,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B206" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -10951,16 +10943,16 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B207" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -10971,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -10983,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -10997,7 +10989,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -11008,10 +11000,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -11022,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -11031,10 +11023,10 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -11048,7 +11040,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -11059,10 +11051,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -11070,22 +11062,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -11110,10 +11102,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B210" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -11121,10 +11113,10 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E210" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F210" t="n">
         <v>3</v>
@@ -11136,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -11155,13 +11147,13 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Nunca</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B211" t="n">
         <v>20</v>
@@ -11172,47 +11164,47 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E211" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F211" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B212" t="n">
         <v>20</v>
@@ -11223,50 +11215,50 @@
         </is>
       </c>
       <c r="D212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="n">
+        <v>10</v>
+      </c>
+      <c r="F212" t="n">
+        <v>15</v>
+      </c>
+      <c r="G212" t="n">
         <v>20</v>
       </c>
-      <c r="E212" t="n">
-        <v>15</v>
-      </c>
-      <c r="F212" t="n">
-        <v>10</v>
-      </c>
-      <c r="G212" t="n">
-        <v>8</v>
-      </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I212" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>No lo se</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -11274,50 +11266,50 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E213" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F213" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G213" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H213" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I213" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>Alguna vez</t>
+          <t>Muy a menudo</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -11325,50 +11317,50 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E214" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>Muy a menudo</t>
+          <t>A menudo</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -11376,22 +11368,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -11405,18 +11397,18 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No lo se</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>A menudo</t>
+          <t>Alguna vez</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B216" t="n">
         <v>20</v>
@@ -11430,10 +11422,10 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -11467,10 +11459,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -11481,10 +11473,10 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -11502,7 +11494,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -11511,57 +11503,6 @@
         </is>
       </c>
       <c r="M217" t="inlineStr">
-        <is>
-          <t>Alguna vez</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>218</v>
-      </c>
-      <c r="B218" t="n">
-        <v>20</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>No lo se</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr">
         <is>
           <t>Alguna vez</t>
         </is>
